--- a/medicine/Enfance/Les_Trois_Portes/Les_Trois_Portes.xlsx
+++ b/medicine/Enfance/Les_Trois_Portes/Les_Trois_Portes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Trois Portes  est le premier roman de la série Les Évadés du temps écrit par Philippe Ébly et édité pour la première fois en 1977 chez Hachette dans la collection dans la Bibliothèque verte.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Thierry et Didier font une randonnée dans la forêt de Brocéliande en Bretagne. Il pleut à verse, la nuit tombe et ils tentent de trouver un endroit pour dormir. Quand ils voient une auberge, ils se sentent sauvés, mais l'accueil n'est pas chaleureux. On leur indique qu'il n'est pas possible de manger ou de dormir, alors que l'établissement a l'air calme, jusqu'au moment où Thierry parle d'une réservation car c'est son anniversaire. Ce mensonge va tout débloquer et ils semblent alors les bienvenus. Le repas est cordial et ils passent une bonne nuit. Le lendemain, l'aubergiste leur demande de sortir par derrière et ils s'exécutent sans broncher.  Cependant une fois dehors, le paysage ne semble plus le même. En faisant le tour de l'auberge, ils ne retrouvent pas la route ! Ils tentent de revenir à l'intérieur, mais c'est impossible ! Ils décident donc d'explorer ce nouveau territoire. Ils comprennent alors qu'ils sont passés dans un monde parallèle avec des créatures étranges. Pour retourner chez eux, on leur indique qu'il n'existe que trois portes pour cela, mais qu'il n'est pas certain qu'elles soient encore en état de marche. Kouroun, leur hôte, accepte de les guider...
 </t>
@@ -543,7 +557,9 @@
           <t>Les différentes éditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1977 : Hachette, coll. : Bibliothèque verte, cartonné, texte original. Illustrations de Claude Lacroix. 181 p.  (ISBN 2-01-004277-8)
 1983 : Hachette, coll. : Bibliothèque verte, cartonné (série hachurée), texte original. Illustrations de Claude Lacroix. 190 p.  (ISBN 2010042778),  (EAN 9782010054631)
